--- a/excel_templates/tenant-template.xlsx
+++ b/excel_templates/tenant-template.xlsx
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -123,6 +126,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -408,7 +414,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +465,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -473,7 +479,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -487,7 +493,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -501,7 +507,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -515,7 +521,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -529,7 +535,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -543,7 +549,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -557,7 +563,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -571,7 +577,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -585,7 +591,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -599,7 +605,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -613,7 +619,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -627,7 +633,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -641,7 +647,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -655,7 +661,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -669,7 +675,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -683,7 +689,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -697,7 +703,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -711,7 +717,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -725,7 +731,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -739,7 +745,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -753,7 +759,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -767,7 +773,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -781,7 +787,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>

--- a/excel_templates/tenant-template.xlsx
+++ b/excel_templates/tenant-template.xlsx
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -128,7 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,8 +471,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -482,8 +485,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -496,8 +499,8 @@
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -510,8 +513,8 @@
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -524,8 +527,8 @@
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -538,8 +541,8 @@
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -552,8 +555,8 @@
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -566,8 +569,8 @@
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -580,8 +583,8 @@
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -594,8 +597,8 @@
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -608,8 +611,8 @@
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -622,8 +625,8 @@
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -636,8 +639,8 @@
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -650,8 +653,8 @@
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -664,8 +667,8 @@
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -678,8 +681,8 @@
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -692,8 +695,8 @@
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -706,8 +709,8 @@
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -720,8 +723,8 @@
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -734,8 +737,8 @@
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -748,8 +751,8 @@
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -762,8 +765,8 @@
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -776,8 +779,8 @@
       <c r="D24" s="5"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -790,8 +793,8 @@
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>

--- a/excel_templates/tenant-template.xlsx
+++ b/excel_templates/tenant-template.xlsx
@@ -14,12 +14,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="firstname">[1]Sheet2!$A$1:$A$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Company Name</t>
   </si>
@@ -55,6 +61,45 @@
   </si>
   <si>
     <t>Personal E-mail</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>MAY TEST</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Brittaney  </t>
+  </si>
+  <si>
+    <t>0453304267</t>
+  </si>
+  <si>
+    <t>Police registration date</t>
+  </si>
+  <si>
+    <t>Expected departure date for police registration</t>
+  </si>
+  <si>
+    <t>Visa expiry date</t>
+  </si>
+  <si>
+    <t>AA10234567</t>
+  </si>
+  <si>
+    <t>123 Park Road</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Brittaney.Sample@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -79,15 +124,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -110,28 +167,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -149,6 +286,122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Gilbert  </v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Eleanora  </v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Casimira  </v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Mozell  </v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Jamar  </v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Clyde  </v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Roseanne  </v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Karleen  </v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Efrain  </v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Drucilla  </v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Holli  </v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Cathie  </v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Phyllis  </v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Julieann  </v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Willis  </v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Danial  </v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Temeka  </v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Elliot  </v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Daria  </v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Brittaney  </v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,391 +667,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="12" width="10.28515625" customWidth="1"/>
+    <col min="1" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="M1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16">
+        <v>27424</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="18">
+        <v>43651</v>
+      </c>
+      <c r="N2" s="18">
+        <v>44418</v>
+      </c>
+      <c r="O2" s="18">
+        <v>44420</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_templates/tenant-template.xlsx
+++ b/excel_templates/tenant-template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Company Name</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>PKK</t>
+  </si>
+  <si>
+    <t>Separate</t>
   </si>
 </sst>
 </file>
@@ -724,12 +727,12 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -972,7 +975,9 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
